--- a/Code/Results/Cases/Case_0_239/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_239/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.206121351630162</v>
+        <v>4.259755363148439</v>
       </c>
       <c r="D2">
-        <v>4.435089937010273</v>
+        <v>6.423941403031091</v>
       </c>
       <c r="E2">
-        <v>10.40206258835902</v>
+        <v>9.677591315237592</v>
       </c>
       <c r="F2">
-        <v>37.15788412163052</v>
+        <v>35.63042287516749</v>
       </c>
       <c r="G2">
-        <v>2.067821563390972</v>
+        <v>3.669130531475786</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.77552196684874</v>
+        <v>28.52160734120368</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.98470670858388</v>
+        <v>15.42243458850324</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.83742716850605</v>
+        <v>16.48296303869194</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.252844018552274</v>
+        <v>4.262655045587705</v>
       </c>
       <c r="D3">
-        <v>4.509452334079611</v>
+        <v>6.445699409744611</v>
       </c>
       <c r="E3">
-        <v>9.819297375540812</v>
+        <v>9.559697735725409</v>
       </c>
       <c r="F3">
-        <v>35.32515719732446</v>
+        <v>35.27445817448563</v>
       </c>
       <c r="G3">
-        <v>2.079833524566244</v>
+        <v>3.673175339344439</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>26.5381318589822</v>
+        <v>28.31762919710955</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.51520452055125</v>
+        <v>15.0203023777068</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.51083991634656</v>
+        <v>16.23935062608864</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.280938841117785</v>
+        <v>4.264395839487481</v>
       </c>
       <c r="D4">
-        <v>4.557585136692556</v>
+        <v>6.45983434745262</v>
       </c>
       <c r="E4">
-        <v>9.458366744315573</v>
+        <v>9.489821267916994</v>
       </c>
       <c r="F4">
-        <v>34.20024715263452</v>
+        <v>35.06544192608423</v>
       </c>
       <c r="G4">
-        <v>2.087342976594777</v>
+        <v>3.675784285579228</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.78479400370998</v>
+        <v>28.20013690018182</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.5677020496309</v>
+        <v>14.7727986689093</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.65744253753309</v>
+        <v>16.09310557048652</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.292266532587369</v>
+        <v>4.265095631974321</v>
       </c>
       <c r="D5">
-        <v>4.577776604706195</v>
+        <v>6.465788709175206</v>
       </c>
       <c r="E5">
-        <v>9.310581064360395</v>
+        <v>9.462006017182526</v>
       </c>
       <c r="F5">
-        <v>33.74224598751707</v>
+        <v>34.9827416512185</v>
       </c>
       <c r="G5">
-        <v>2.090440522170991</v>
+        <v>3.676879119788919</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.47959589963072</v>
+        <v>28.15423807520764</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.170003802287</v>
+        <v>14.67196163302021</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.29969606106054</v>
+        <v>16.0344246150691</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.294140934227719</v>
+        <v>4.265211263302837</v>
       </c>
       <c r="D6">
-        <v>4.581163051903581</v>
+        <v>6.466789138241885</v>
       </c>
       <c r="E6">
-        <v>9.286001941309856</v>
+        <v>9.45742798006791</v>
       </c>
       <c r="F6">
-        <v>33.6662309349801</v>
+        <v>34.96916091352401</v>
       </c>
       <c r="G6">
-        <v>2.090957226217428</v>
+        <v>3.677062832625325</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.42903252098943</v>
+        <v>28.14673704202137</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.10326082779723</v>
+        <v>14.65522424287422</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.23968406876765</v>
+        <v>16.02473816343275</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.281092065996248</v>
+        <v>4.264405315522703</v>
       </c>
       <c r="D7">
-        <v>4.557855163967751</v>
+        <v>6.459913864496175</v>
       </c>
       <c r="E7">
-        <v>9.456376370466213</v>
+        <v>9.489443432903936</v>
       </c>
       <c r="F7">
-        <v>34.1940682498575</v>
+        <v>35.06431648395673</v>
       </c>
       <c r="G7">
-        <v>2.087384595199765</v>
+        <v>3.675798922505728</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.78067046018579</v>
+        <v>28.19950983674332</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.56238572075531</v>
+        <v>14.77143842148365</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.65265851251728</v>
+        <v>16.09231037341072</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.222372154457223</v>
+        <v>4.260763618244028</v>
       </c>
       <c r="D8">
-        <v>4.460186947472071</v>
+        <v>6.431282180304247</v>
       </c>
       <c r="E8">
-        <v>10.20180519106744</v>
+        <v>9.636438219132939</v>
       </c>
       <c r="F8">
-        <v>36.52603188019693</v>
+        <v>35.50575133013155</v>
       </c>
       <c r="G8">
-        <v>2.071937783971447</v>
+        <v>3.670499229287074</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.34762460398944</v>
+        <v>28.44968685309243</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.48727526405642</v>
+        <v>15.28400338970373</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.38795638743112</v>
+        <v>16.39832005885795</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.10108709120105</v>
+        <v>4.253291291454218</v>
       </c>
       <c r="D9">
-        <v>4.290800653801387</v>
+        <v>6.381321046820116</v>
       </c>
       <c r="E9">
-        <v>11.63770754286597</v>
+        <v>9.943280420754993</v>
       </c>
       <c r="F9">
-        <v>41.09451624308813</v>
+        <v>36.4435962405865</v>
       </c>
       <c r="G9">
-        <v>2.04252431585892</v>
+        <v>3.661095736715591</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.46713362847082</v>
+        <v>29.00022844744676</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.91370382647115</v>
+        <v>16.27726799447985</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.49289272345973</v>
+        <v>17.02141872036263</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.005935642450444</v>
+        <v>4.247576683826805</v>
       </c>
       <c r="D10">
-        <v>4.184266035673401</v>
+        <v>6.348430816790744</v>
       </c>
       <c r="E10">
-        <v>12.79395232176494</v>
+        <v>10.17817545829172</v>
       </c>
       <c r="F10">
-        <v>44.44797100969473</v>
+        <v>37.17153053207405</v>
       </c>
       <c r="G10">
-        <v>2.021153134398917</v>
+        <v>3.654781691825137</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.78808743885078</v>
+        <v>29.43892398043203</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>26.23522753543643</v>
+        <v>16.99080538426381</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.60886923440487</v>
+        <v>17.48859783379131</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.960715003640055</v>
+        <v>4.244923303016866</v>
       </c>
       <c r="D11">
-        <v>4.141010847359987</v>
+        <v>6.33430710320345</v>
       </c>
       <c r="E11">
-        <v>13.34484510690224</v>
+        <v>10.28667475212068</v>
       </c>
       <c r="F11">
-        <v>45.97592368139374</v>
+        <v>37.50996707320267</v>
       </c>
       <c r="G11">
-        <v>2.011404099731503</v>
+        <v>3.652036616058714</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.85243321838275</v>
+        <v>29.64536344440646</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>27.25306505495724</v>
+        <v>17.31019119399416</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.53990466341029</v>
+        <v>17.70219185564341</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.943250215196944</v>
+        <v>4.243910421185096</v>
       </c>
       <c r="D12">
-        <v>4.125523114026057</v>
+        <v>6.329080283426671</v>
       </c>
       <c r="E12">
-        <v>13.55185917123932</v>
+        <v>10.32796188240006</v>
       </c>
       <c r="F12">
-        <v>46.55534740519548</v>
+        <v>37.63907162305646</v>
       </c>
       <c r="G12">
-        <v>2.007700695295558</v>
+        <v>3.651015282557911</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>34.25703620151454</v>
+        <v>29.72447377668333</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.6334071472115</v>
+        <v>17.43025846730401</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.88834943836499</v>
+        <v>17.78314885812443</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.94702783194001</v>
+        <v>4.244128929716906</v>
       </c>
       <c r="D13">
-        <v>4.128816380942931</v>
+        <v>6.330200551660788</v>
       </c>
       <c r="E13">
-        <v>13.50734054270865</v>
+        <v>10.31906159600278</v>
       </c>
       <c r="F13">
-        <v>46.43051204886415</v>
+        <v>37.61122623211931</v>
       </c>
       <c r="G13">
-        <v>2.008498945002073</v>
+        <v>3.651234439021937</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>34.16982162973844</v>
+        <v>29.70739517072478</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>27.55171296017132</v>
+        <v>17.4044407781292</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.81348146267042</v>
+        <v>17.7657113053251</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.959285388845859</v>
+        <v>4.244840137156096</v>
       </c>
       <c r="D14">
-        <v>4.139717851677024</v>
+        <v>6.333874648292537</v>
       </c>
       <c r="E14">
-        <v>13.361906332607</v>
+        <v>10.29006764866646</v>
       </c>
       <c r="F14">
-        <v>46.02357337869148</v>
+        <v>37.52057021907081</v>
       </c>
       <c r="G14">
-        <v>2.011099700877097</v>
+        <v>3.651952226963548</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.88568652362564</v>
+        <v>29.65185344416076</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>27.28445551050205</v>
+        <v>17.32008747940687</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.56865134732254</v>
+        <v>17.70885121576126</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.96674709294015</v>
+        <v>4.245274705880371</v>
       </c>
       <c r="D15">
-        <v>4.146516272730472</v>
+        <v>6.336140994492926</v>
       </c>
       <c r="E15">
-        <v>13.2726257373874</v>
+        <v>10.27233311245553</v>
       </c>
       <c r="F15">
-        <v>45.77443588005409</v>
+        <v>37.46516090259831</v>
       </c>
       <c r="G15">
-        <v>2.012690969765195</v>
+        <v>3.652394254954119</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.71186070803351</v>
+        <v>29.61795286046134</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>27.12010272323014</v>
+        <v>17.26830077881539</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.41816296057701</v>
+        <v>17.67402999853784</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.008846870343402</v>
+        <v>4.247748974595984</v>
       </c>
       <c r="D16">
-        <v>4.187209208954926</v>
+        <v>6.349370785605593</v>
       </c>
       <c r="E16">
-        <v>12.75770873512628</v>
+        <v>10.17111481409788</v>
       </c>
       <c r="F16">
-        <v>44.34820073011812</v>
+        <v>37.14955093443798</v>
       </c>
       <c r="G16">
-        <v>2.021789074950067</v>
+        <v>3.654963638076272</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.71872686639632</v>
+        <v>29.42556658507429</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>26.16797357260285</v>
+        <v>16.96981677424199</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.54742354375044</v>
+        <v>17.47465359655493</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.034136744207911</v>
+        <v>4.24925281989448</v>
       </c>
       <c r="D17">
-        <v>4.213599400959469</v>
+        <v>6.357702215279022</v>
       </c>
       <c r="E17">
-        <v>12.43863335373344</v>
+        <v>10.1094164544044</v>
       </c>
       <c r="F17">
-        <v>43.47415310416937</v>
+        <v>36.9577301688736</v>
       </c>
       <c r="G17">
-        <v>2.027358365426832</v>
+        <v>3.656572364308778</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.11185032746669</v>
+        <v>29.30926805764152</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.57435223924489</v>
+        <v>16.78527821222676</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.00545405818633</v>
+        <v>17.35255919568446</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.048504897412236</v>
+        <v>4.250112752192464</v>
       </c>
       <c r="D18">
-        <v>4.229258319196901</v>
+        <v>6.362573069128034</v>
       </c>
       <c r="E18">
-        <v>12.25384077202828</v>
+        <v>10.07408610589109</v>
       </c>
       <c r="F18">
-        <v>42.97161542966377</v>
+        <v>36.84809293198159</v>
       </c>
       <c r="G18">
-        <v>2.030559645050119</v>
+        <v>3.657509642696023</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.76356649614355</v>
+        <v>29.24302658792333</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25.22929056652981</v>
+        <v>16.67865350756567</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.69073128209807</v>
+        <v>17.28243932011781</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.053340884578909</v>
+        <v>4.250403056246687</v>
       </c>
       <c r="D19">
-        <v>4.234638721076917</v>
+        <v>6.364235767035445</v>
       </c>
       <c r="E19">
-        <v>12.19104663307563</v>
+        <v>10.06215189433169</v>
       </c>
       <c r="F19">
-        <v>42.8014864798953</v>
+        <v>36.81109378538096</v>
       </c>
       <c r="G19">
-        <v>2.031643411619633</v>
+        <v>3.657829050754195</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.64576886121124</v>
+        <v>29.22071162460319</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>25.11182429278919</v>
+        <v>16.64247335367502</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.58364524665189</v>
+        <v>17.25871856005887</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.031463426009737</v>
+        <v>4.249093257285457</v>
       </c>
       <c r="D20">
-        <v>4.210739503765087</v>
+        <v>6.356807154093941</v>
       </c>
       <c r="E20">
-        <v>12.47272871514618</v>
+        <v>10.11596836837092</v>
       </c>
       <c r="F20">
-        <v>43.56717436751121</v>
+        <v>36.97807883677137</v>
       </c>
       <c r="G20">
-        <v>2.026765767223164</v>
+        <v>3.656399873519119</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.17637114104393</v>
+        <v>29.32158129630449</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.63791679373066</v>
+        <v>16.80497361221786</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.06345491701099</v>
+        <v>17.36554601485985</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.955694844458224</v>
+        <v>4.24463146117792</v>
       </c>
       <c r="D21">
-        <v>4.136490317662361</v>
+        <v>6.332792170874793</v>
       </c>
       <c r="E21">
-        <v>13.40466451074149</v>
+        <v>10.29857870776538</v>
       </c>
       <c r="F21">
-        <v>46.14307413399813</v>
+        <v>37.54717324282657</v>
       </c>
       <c r="G21">
-        <v>2.010336180159894</v>
+        <v>3.651740903200421</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.9690982661177</v>
+        <v>29.66814241586358</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>27.36309012364624</v>
+        <v>17.34488886623199</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.64067201840868</v>
+        <v>17.72555103632238</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.904152611619511</v>
+        <v>4.241668011985817</v>
       </c>
       <c r="D22">
-        <v>4.093254200854667</v>
+        <v>6.317805808442952</v>
       </c>
       <c r="E22">
-        <v>14.00461206684155</v>
+        <v>10.41907914147024</v>
       </c>
       <c r="F22">
-        <v>47.83172297942164</v>
+        <v>37.9245745665591</v>
       </c>
       <c r="G22">
-        <v>1.999526002072978</v>
+        <v>3.64880183016684</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.15008993428023</v>
+        <v>29.90007122904572</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>28.4611516935893</v>
+        <v>17.69258964720095</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.64771259675975</v>
+        <v>17.96122832742732</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.931870307569113</v>
+        <v>4.243254120354056</v>
       </c>
       <c r="D23">
-        <v>4.11579026037687</v>
+        <v>6.325739119900284</v>
       </c>
       <c r="E23">
-        <v>13.6851277398955</v>
+        <v>10.35467193976282</v>
       </c>
       <c r="F23">
-        <v>46.92978096161205</v>
+        <v>37.72268269791065</v>
       </c>
       <c r="G23">
-        <v>2.005305130674589</v>
+        <v>3.650360826654901</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34.51877097128138</v>
+        <v>29.77580735351924</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.87763840073885</v>
+        <v>17.50752749584014</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.11225549541546</v>
+        <v>17.83543295925401</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.032672562287349</v>
+        <v>4.249165409991713</v>
       </c>
       <c r="D24">
-        <v>4.212030957299294</v>
+        <v>6.357211559020906</v>
       </c>
       <c r="E24">
-        <v>12.4573184356607</v>
+        <v>10.11300580661239</v>
       </c>
       <c r="F24">
-        <v>43.5251195994841</v>
+        <v>36.96887719317209</v>
       </c>
       <c r="G24">
-        <v>2.027033682109501</v>
+        <v>3.656477817971461</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.14719938079183</v>
+        <v>29.31601254567671</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.60919106509018</v>
+        <v>16.79607096603843</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.0372425312249</v>
+        <v>17.35967443783675</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.134772866471312</v>
+        <v>4.255350568308558</v>
       </c>
       <c r="D25">
-        <v>4.333855250027231</v>
+        <v>6.394170072921409</v>
       </c>
       <c r="E25">
-        <v>11.25201303970245</v>
+        <v>9.858471375028445</v>
       </c>
       <c r="F25">
-        <v>39.85964572023337</v>
+        <v>36.18266674523085</v>
       </c>
       <c r="G25">
-        <v>2.050415719516226</v>
+        <v>3.663534593594501</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.61849704195275</v>
+        <v>28.84510212634324</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>23.02246358033079</v>
+        <v>16.01079906252768</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.68324966669092</v>
+        <v>16.85086998638802</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_239/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_239/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.259755363148439</v>
+        <v>3.20612135163003</v>
       </c>
       <c r="D2">
-        <v>6.423941403031091</v>
+        <v>4.435089937010273</v>
       </c>
       <c r="E2">
-        <v>9.677591315237592</v>
+        <v>10.40206258835902</v>
       </c>
       <c r="F2">
-        <v>35.63042287516749</v>
+        <v>37.15788412163047</v>
       </c>
       <c r="G2">
-        <v>3.669130531475786</v>
+        <v>2.067821563391106</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.52160734120368</v>
+        <v>27.77552196684871</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.42243458850324</v>
+        <v>20.98470670858388</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.48296303869194</v>
+        <v>18.83742716850604</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.262655045587705</v>
+        <v>3.252844018552272</v>
       </c>
       <c r="D3">
-        <v>6.445699409744611</v>
+        <v>4.509452334079683</v>
       </c>
       <c r="E3">
-        <v>9.559697735725409</v>
+        <v>9.819297375540769</v>
       </c>
       <c r="F3">
-        <v>35.27445817448563</v>
+        <v>35.32515719732447</v>
       </c>
       <c r="G3">
-        <v>3.673175339344439</v>
+        <v>2.079833524566244</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.31762919710955</v>
+        <v>26.53813185898221</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.0203023777068</v>
+        <v>19.51520452055128</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.23935062608864</v>
+        <v>17.51083991634664</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.264395839487481</v>
+        <v>3.280938841117516</v>
       </c>
       <c r="D4">
-        <v>6.45983434745262</v>
+        <v>4.557585136692658</v>
       </c>
       <c r="E4">
-        <v>9.489821267916994</v>
+        <v>9.458366744315573</v>
       </c>
       <c r="F4">
-        <v>35.06544192608423</v>
+        <v>34.20024715263443</v>
       </c>
       <c r="G4">
-        <v>3.675784285579228</v>
+        <v>2.087342976594912</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.20013690018182</v>
+        <v>25.78479400370989</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>14.7727986689093</v>
+        <v>18.56770204963093</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.09310557048652</v>
+        <v>16.65744253753313</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.265095631974321</v>
+        <v>3.292266532587233</v>
       </c>
       <c r="D5">
-        <v>6.465788709175206</v>
+        <v>4.577776604706268</v>
       </c>
       <c r="E5">
-        <v>9.462006017182526</v>
+        <v>9.310581064360424</v>
       </c>
       <c r="F5">
-        <v>34.9827416512185</v>
+        <v>33.74224598751712</v>
       </c>
       <c r="G5">
-        <v>3.676879119788919</v>
+        <v>2.090440522170725</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.15423807520764</v>
+        <v>25.47959589963076</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.67196163302021</v>
+        <v>18.170003802287</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.0344246150691</v>
+        <v>16.29969606106057</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.265211263302837</v>
+        <v>3.294140934227316</v>
       </c>
       <c r="D6">
-        <v>6.466789138241885</v>
+        <v>4.58116305190353</v>
       </c>
       <c r="E6">
-        <v>9.45742798006791</v>
+        <v>9.286001941309896</v>
       </c>
       <c r="F6">
-        <v>34.96916091352401</v>
+        <v>33.66623093497999</v>
       </c>
       <c r="G6">
-        <v>3.677062832625325</v>
+        <v>2.090957226217426</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.14673704202137</v>
+        <v>25.42903252098935</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.65522424287422</v>
+        <v>18.10326082779735</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.02473816343275</v>
+        <v>16.23968406876772</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.264405315522703</v>
+        <v>3.281092065996248</v>
       </c>
       <c r="D7">
-        <v>6.459913864496175</v>
+        <v>4.557855163967766</v>
       </c>
       <c r="E7">
-        <v>9.489443432903936</v>
+        <v>9.456376370466169</v>
       </c>
       <c r="F7">
-        <v>35.06431648395673</v>
+        <v>34.19406824985749</v>
       </c>
       <c r="G7">
-        <v>3.675798922505728</v>
+        <v>2.087384595199899</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.19950983674332</v>
+        <v>25.78067046018574</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>14.77143842148365</v>
+        <v>18.56238572075544</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.09231037341072</v>
+        <v>16.6526585125174</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.260763618244028</v>
+        <v>3.222372154456955</v>
       </c>
       <c r="D8">
-        <v>6.431282180304247</v>
+        <v>4.460186947472295</v>
       </c>
       <c r="E8">
-        <v>9.636438219132939</v>
+        <v>10.20180519106741</v>
       </c>
       <c r="F8">
-        <v>35.50575133013155</v>
+        <v>36.52603188019683</v>
       </c>
       <c r="G8">
-        <v>3.670499229287074</v>
+        <v>2.071937783971178</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.44968685309243</v>
+        <v>27.34762460398941</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.28400338970373</v>
+        <v>20.48727526405641</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.39832005885795</v>
+        <v>18.3879563874311</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.253291291454218</v>
+        <v>3.101087091200786</v>
       </c>
       <c r="D9">
-        <v>6.381321046820116</v>
+        <v>4.290800653801451</v>
       </c>
       <c r="E9">
-        <v>9.943280420754993</v>
+        <v>11.63770754286598</v>
       </c>
       <c r="F9">
-        <v>36.4435962405865</v>
+        <v>41.09451624308816</v>
       </c>
       <c r="G9">
-        <v>3.661095736715591</v>
+        <v>2.04252431585879</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.00022844744676</v>
+        <v>30.46713362847085</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.27726799447985</v>
+        <v>23.91370382647118</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.02141872036263</v>
+        <v>21.4928927234597</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.247576683826805</v>
+        <v>3.005935642450173</v>
       </c>
       <c r="D10">
-        <v>6.348430816790744</v>
+        <v>4.184266035673422</v>
       </c>
       <c r="E10">
-        <v>10.17817545829172</v>
+        <v>12.79395232176494</v>
       </c>
       <c r="F10">
-        <v>37.17153053207405</v>
+        <v>44.44797100969481</v>
       </c>
       <c r="G10">
-        <v>3.654781691825137</v>
+        <v>2.021153134398777</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>29.43892398043203</v>
+        <v>32.78808743885085</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.99080538426381</v>
+        <v>26.23522753543645</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.48859783379131</v>
+        <v>23.60886923440489</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.244923303016866</v>
+        <v>2.960715003640192</v>
       </c>
       <c r="D11">
-        <v>6.33430710320345</v>
+        <v>4.141010847359933</v>
       </c>
       <c r="E11">
-        <v>10.28667475212068</v>
+        <v>13.34484510690222</v>
       </c>
       <c r="F11">
-        <v>37.50996707320267</v>
+        <v>45.9759236813937</v>
       </c>
       <c r="G11">
-        <v>3.652036616058714</v>
+        <v>2.011404099731636</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>29.64536344440646</v>
+        <v>33.85243321838274</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.31019119399416</v>
+        <v>27.25306505495723</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.70219185564341</v>
+        <v>24.53990466341027</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.243910421185096</v>
+        <v>2.943250215196678</v>
       </c>
       <c r="D12">
-        <v>6.329080283426671</v>
+        <v>4.12552311402613</v>
       </c>
       <c r="E12">
-        <v>10.32796188240006</v>
+        <v>13.55185917123934</v>
       </c>
       <c r="F12">
-        <v>37.63907162305646</v>
+        <v>46.55534740519536</v>
       </c>
       <c r="G12">
-        <v>3.651015282557911</v>
+        <v>2.007700695295429</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>29.72447377668333</v>
+        <v>34.25703620151447</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.43025846730401</v>
+        <v>27.63340714721142</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.78314885812443</v>
+        <v>24.88834943836495</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.244128929716906</v>
+        <v>2.94702783194014</v>
       </c>
       <c r="D13">
-        <v>6.330200551660788</v>
+        <v>4.1288163809429</v>
       </c>
       <c r="E13">
-        <v>10.31906159600278</v>
+        <v>13.50734054270868</v>
       </c>
       <c r="F13">
-        <v>37.61122623211931</v>
+        <v>46.43051204886419</v>
       </c>
       <c r="G13">
-        <v>3.651234439021937</v>
+        <v>2.008498945002206</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29.70739517072478</v>
+        <v>34.16982162973846</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.4044407781292</v>
+        <v>27.55171296017136</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.7657113053251</v>
+        <v>24.81348146267045</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.244840137156096</v>
+        <v>2.959285388846125</v>
       </c>
       <c r="D14">
-        <v>6.333874648292537</v>
+        <v>4.139717851677027</v>
       </c>
       <c r="E14">
-        <v>10.29006764866646</v>
+        <v>13.36190633260705</v>
       </c>
       <c r="F14">
-        <v>37.52057021907081</v>
+        <v>46.02357337869128</v>
       </c>
       <c r="G14">
-        <v>3.651952226963548</v>
+        <v>2.011099700876965</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>29.65185344416076</v>
+        <v>33.88568652362548</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.32008747940687</v>
+        <v>27.28445551050192</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.70885121576126</v>
+        <v>24.56865134732249</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.245274705880371</v>
+        <v>2.966747092940015</v>
       </c>
       <c r="D15">
-        <v>6.336140994492926</v>
+        <v>4.146516272730339</v>
       </c>
       <c r="E15">
-        <v>10.27233311245553</v>
+        <v>13.27262573738741</v>
       </c>
       <c r="F15">
-        <v>37.46516090259831</v>
+        <v>45.77443588005418</v>
       </c>
       <c r="G15">
-        <v>3.652394254954119</v>
+        <v>2.012690969765194</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>29.61795286046134</v>
+        <v>33.71186070803356</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.26830077881539</v>
+        <v>27.12010272323025</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.67402999853784</v>
+        <v>24.41816296057705</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.247748974595984</v>
+        <v>3.008846870343405</v>
       </c>
       <c r="D16">
-        <v>6.349370785605593</v>
+        <v>4.187209208954904</v>
       </c>
       <c r="E16">
-        <v>10.17111481409788</v>
+        <v>12.75770873512633</v>
       </c>
       <c r="F16">
-        <v>37.14955093443798</v>
+        <v>44.34820073011809</v>
       </c>
       <c r="G16">
-        <v>3.654963638076272</v>
+        <v>2.02178907494994</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>29.42556658507429</v>
+        <v>32.7187268663963</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.96981677424199</v>
+        <v>26.16797357260282</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.47465359655493</v>
+        <v>23.54742354375044</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.24925281989448</v>
+        <v>3.034136744208177</v>
       </c>
       <c r="D17">
-        <v>6.357702215279022</v>
+        <v>4.213599400959532</v>
       </c>
       <c r="E17">
-        <v>10.1094164544044</v>
+        <v>12.43863335373343</v>
       </c>
       <c r="F17">
-        <v>36.9577301688736</v>
+        <v>43.47415310416936</v>
       </c>
       <c r="G17">
-        <v>3.656572364308778</v>
+        <v>2.027358365426835</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.30926805764152</v>
+        <v>32.11185032746667</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.78527821222676</v>
+        <v>25.57435223924497</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.35255919568446</v>
+        <v>23.00545405818636</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.250112752192464</v>
+        <v>3.048504897411966</v>
       </c>
       <c r="D18">
-        <v>6.362573069128034</v>
+        <v>4.229258319196859</v>
       </c>
       <c r="E18">
-        <v>10.07408610589109</v>
+        <v>12.2538407720283</v>
       </c>
       <c r="F18">
-        <v>36.84809293198159</v>
+        <v>42.97161542966383</v>
       </c>
       <c r="G18">
-        <v>3.657509642696023</v>
+        <v>2.030559645050247</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.24302658792333</v>
+        <v>31.7635664961436</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.67865350756567</v>
+        <v>25.22929056652984</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.28243932011781</v>
+        <v>22.69073128209811</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.250403056246687</v>
+        <v>3.053340884578774</v>
       </c>
       <c r="D19">
-        <v>6.364235767035445</v>
+        <v>4.234638721076863</v>
       </c>
       <c r="E19">
-        <v>10.06215189433169</v>
+        <v>12.19104663307552</v>
       </c>
       <c r="F19">
-        <v>36.81109378538096</v>
+        <v>42.80148647989522</v>
       </c>
       <c r="G19">
-        <v>3.657829050754195</v>
+        <v>2.03164341161976</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.22071162460319</v>
+        <v>31.6457688612112</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.64247335367502</v>
+        <v>25.11182429278917</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.25871856005887</v>
+        <v>22.58364524665184</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.249093257285457</v>
+        <v>3.031463426009606</v>
       </c>
       <c r="D20">
-        <v>6.356807154093941</v>
+        <v>4.210739503765108</v>
       </c>
       <c r="E20">
-        <v>10.11596836837092</v>
+        <v>12.47272871514615</v>
       </c>
       <c r="F20">
-        <v>36.97807883677137</v>
+        <v>43.56717436751126</v>
       </c>
       <c r="G20">
-        <v>3.656399873519119</v>
+        <v>2.026765767223306</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>29.32158129630449</v>
+        <v>32.17637114104394</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.80497361221786</v>
+        <v>25.63791679373068</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.36554601485985</v>
+        <v>23.06345491701099</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.24463146117792</v>
+        <v>2.955694844458228</v>
       </c>
       <c r="D21">
-        <v>6.332792170874793</v>
+        <v>4.136490317662372</v>
       </c>
       <c r="E21">
-        <v>10.29857870776538</v>
+        <v>13.4046645107415</v>
       </c>
       <c r="F21">
-        <v>37.54717324282657</v>
+        <v>46.14307413399813</v>
       </c>
       <c r="G21">
-        <v>3.651740903200421</v>
+        <v>2.010336180159765</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29.66814241586358</v>
+        <v>33.96909826611772</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.34488886623199</v>
+        <v>27.36309012364623</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.72555103632238</v>
+        <v>24.64067201840865</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.241668011985817</v>
+        <v>2.904152611619641</v>
       </c>
       <c r="D22">
-        <v>6.317805808442952</v>
+        <v>4.093254200854574</v>
       </c>
       <c r="E22">
-        <v>10.41907914147024</v>
+        <v>14.00461206684149</v>
       </c>
       <c r="F22">
-        <v>37.9245745665591</v>
+        <v>47.83172297942182</v>
       </c>
       <c r="G22">
-        <v>3.64880183016684</v>
+        <v>1.999526002072975</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>29.90007122904572</v>
+        <v>35.15008993428032</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.69258964720095</v>
+        <v>28.46115169358938</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.96122832742732</v>
+        <v>25.64771259675976</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.243254120354056</v>
+        <v>2.931870307569113</v>
       </c>
       <c r="D23">
-        <v>6.325739119900284</v>
+        <v>4.115790260376962</v>
       </c>
       <c r="E23">
-        <v>10.35467193976282</v>
+        <v>13.68512773989557</v>
       </c>
       <c r="F23">
-        <v>37.72268269791065</v>
+        <v>46.92978096161202</v>
       </c>
       <c r="G23">
-        <v>3.650360826654901</v>
+        <v>2.005305130674586</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>29.77580735351924</v>
+        <v>34.51877097128136</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.50752749584014</v>
+        <v>27.87763840073881</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.83543295925401</v>
+        <v>25.11225549541546</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.249165409991713</v>
+        <v>3.032672562287214</v>
       </c>
       <c r="D24">
-        <v>6.357211559020906</v>
+        <v>4.2120309572993</v>
       </c>
       <c r="E24">
-        <v>10.11300580661239</v>
+        <v>12.45731843566074</v>
       </c>
       <c r="F24">
-        <v>36.96887719317209</v>
+        <v>43.5251195994841</v>
       </c>
       <c r="G24">
-        <v>3.656477817971461</v>
+        <v>2.027033682109905</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.31601254567671</v>
+        <v>32.14719938079181</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.79607096603843</v>
+        <v>25.60919106509024</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.35967443783675</v>
+        <v>23.03724253122498</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.255350568308558</v>
+        <v>3.13477286647171</v>
       </c>
       <c r="D25">
-        <v>6.394170072921409</v>
+        <v>4.333855250027417</v>
       </c>
       <c r="E25">
-        <v>9.858471375028445</v>
+        <v>11.25201303970238</v>
       </c>
       <c r="F25">
-        <v>36.18266674523085</v>
+        <v>39.8596457202335</v>
       </c>
       <c r="G25">
-        <v>3.663534593594501</v>
+        <v>2.050415719516228</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.84510212634324</v>
+        <v>29.61849704195282</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.01079906252768</v>
+        <v>23.02246358033074</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.85086998638802</v>
+        <v>20.68324966669084</v>
       </c>
       <c r="N25">
         <v>0</v>
